--- a/Excel_Exercice01_MiseEnFormeEtGraphique (1).xlsx
+++ b/Excel_Exercice01_MiseEnFormeEtGraphique (1).xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6164703\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC08B4A3-36A9-4ECF-9E0F-56AD7A0A270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58196773-CAC2-4DEF-A283-18FC82E5D5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultat attendu" sheetId="1" r:id="rId1"/>
     <sheet name="Données brutes" sheetId="2" r:id="rId2"/>
     <sheet name="Objectifs" sheetId="3" r:id="rId3"/>
-    <sheet name="Resulta final" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <webPublishing codePage="1252"/>
@@ -135,7 +134,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ [$$-C0C]"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ [$$-C0C]"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1206,6 +1205,135 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="4" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="7" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="7" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1214,6 +1342,12 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -1221,141 +1355,6 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="19" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="19" fillId="2" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="19" fillId="2" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="19" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="19" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="19" fillId="4" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6251,24 +6250,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
     </row>
     <row r="3" spans="2:17" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
@@ -6279,24 +6278,24 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
     </row>
     <row r="5" spans="2:17" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
@@ -6679,7 +6678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
@@ -6696,358 +6695,358 @@
   <sheetData>
     <row r="1" spans="2:17" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
     </row>
     <row r="3" spans="2:17" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
     </row>
     <row r="5" spans="2:17" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:17" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
     </row>
-    <row r="8" spans="2:17" s="76" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="79" t="s">
+    <row r="8" spans="2:17" s="70" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="72" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="61">
         <v>1988.5</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="61">
         <v>2897.35</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="61">
         <v>5223.25</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="62">
         <v>7996.36</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="63">
         <v>18105.46</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="61">
         <v>5215</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="61">
         <v>8309.0499999999993</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="61">
         <v>4287.9799999999996</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="62">
         <v>9352.64</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="63">
         <v>27164.67</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="61">
         <v>7832.97</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="61">
         <v>11299.87</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="61">
         <v>8264.81</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="62">
         <v>13226.47</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="63">
         <v>40624.120000000003</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="61">
         <v>2337.81</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="61">
         <v>2137.81</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="61">
         <v>1237.81</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="62">
         <v>3237.81</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="63">
         <v>8951.24</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="65">
         <v>4336.37</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="65">
         <v>1790.84</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="65">
         <v>1206.77</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="66">
         <v>1628.13</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="63">
         <v>8962.11</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="63">
         <v>21710.65</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="63">
         <v>26434.920000000002</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="63">
         <v>20220.620000000003</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="68">
         <v>35441.409999999996</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="69">
         <v>103807.6</v>
       </c>
-      <c r="H14" s="61"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:17" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
     </row>
-    <row r="17" spans="2:8" s="76" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="90" t="s">
+    <row r="17" spans="2:8" s="70" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="91" t="s">
+      <c r="E17" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="92" t="s">
+      <c r="G17" s="86" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="75">
         <v>12462.87</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="75">
         <v>8256.9699999999993</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="75">
         <v>10884.65</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="76">
         <v>18995.599999999999</v>
       </c>
-      <c r="G18" s="83">
+      <c r="G18" s="77">
         <v>50600.09</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="81">
+      <c r="C19" s="75">
         <v>2533.2399999999998</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="75">
         <v>5855.47</v>
       </c>
-      <c r="E19" s="81">
+      <c r="E19" s="75">
         <v>8525.14</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="76">
         <v>11253.21</v>
       </c>
-      <c r="G19" s="83">
+      <c r="G19" s="77">
         <v>28167.059999999998</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="79">
         <v>8755.24</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="79">
         <v>7562.22</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="79">
         <v>5221.5600000000004</v>
       </c>
-      <c r="F20" s="86">
+      <c r="F20" s="80">
         <v>3256.47</v>
       </c>
-      <c r="G20" s="87">
+      <c r="G20" s="81">
         <v>24795.49</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="83">
+      <c r="C21" s="77">
         <v>23751.35</v>
       </c>
-      <c r="D21" s="83">
+      <c r="D21" s="77">
         <v>21674.66</v>
       </c>
-      <c r="E21" s="83">
+      <c r="E21" s="77">
         <v>24631.350000000002</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="83">
         <v>33505.279999999999</v>
       </c>
-      <c r="G21" s="83">
+      <c r="G21" s="77">
         <v>103562.64</v>
       </c>
-      <c r="H21" s="64"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="2:8" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="65"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="2:8" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:8" s="76" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="95" t="s">
+    <row r="24" spans="2:8" s="70" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="96" t="s">
+      <c r="E24" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="97" t="s">
+      <c r="F24" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="98" t="s">
+      <c r="G24" s="92" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="99">
+      <c r="C25" s="93">
         <v>-2040.6999999999971</v>
       </c>
-      <c r="D25" s="100">
+      <c r="D25" s="94">
         <v>4760.260000000002</v>
       </c>
-      <c r="E25" s="99">
+      <c r="E25" s="93">
         <v>-4410.7299999999996</v>
       </c>
-      <c r="F25" s="101">
+      <c r="F25" s="95">
         <v>1936.1299999999974</v>
       </c>
-      <c r="G25" s="102">
+      <c r="G25" s="96">
         <v>244.96</v>
       </c>
-      <c r="H25" s="94"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26" spans="2:8" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:8" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7067,7 +7066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
@@ -7083,15 +7082,15 @@
   <sheetData>
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
     </row>
     <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="102" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="50" t="s">
@@ -7099,25 +7098,25 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="57"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C6" s="57"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="57"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="51" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="57"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="53" t="s">
         <v>27</v>
       </c>
@@ -7126,7 +7125,7 @@
       <c r="C9" s="49"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="102" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="50" t="s">
@@ -7134,19 +7133,19 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="57"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="51" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="57"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="52" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="57"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="54" t="s">
         <v>23</v>
       </c>
@@ -7161,18 +7160,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3E3E4C-C6AD-4FEB-9D3B-64171C440317}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>